--- a/curation/BC_Package_R7_FACV.xlsx
+++ b/curation/BC_Package_R7_FACV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linda\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24B98A3-F464-4B6A-8084-50A0BEA5760F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D32E6E7-4734-4DAA-AF90-3F2146D0A4B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="390" windowWidth="25440" windowHeight="15390" xr2:uid="{FA29263D-F7AA-4D0C-AE9B-6B008D3B18BE}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" activeTab="1" xr2:uid="{FA29263D-F7AA-4D0C-AE9B-6B008D3B18BE}"/>
   </bookViews>
   <sheets>
     <sheet name="BC_FACV" sheetId="68" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BC_FACV!$A$1:$R$93</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SDTM_FACV!$A$1:$AG$113</definedName>
   </definedNames>
-  <calcPr calcId="191028" concurrentCalc="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1202,22 +1202,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89054258-F34E-4B7C-91CD-778492587AD1}">
   <dimension ref="A1:R93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+    <sheetView zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
       <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.87890625" customWidth="1"/>
+    <col min="2" max="2" width="32.41015625" customWidth="1"/>
+    <col min="5" max="5" width="11.41015625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="44" customWidth="1"/>
-    <col min="7" max="7" width="45.5703125" customWidth="1"/>
-    <col min="15" max="15" width="25.140625" customWidth="1"/>
-    <col min="17" max="17" width="26.140625" customWidth="1"/>
+    <col min="7" max="7" width="45.5859375" customWidth="1"/>
+    <col min="15" max="15" width="25.1171875" customWidth="1"/>
+    <col min="17" max="17" width="26.1171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="10" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A3" s="5" t="s">
         <v>57</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A4" s="5" t="s">
         <v>57</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A5" s="5" t="s">
         <v>57</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A6" s="5" t="s">
         <v>57</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A7" s="5" t="s">
         <v>57</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A8" s="5" t="s">
         <v>57</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A9" s="5" t="s">
         <v>57</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A10" s="5" t="s">
         <v>57</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A11" s="5" t="s">
         <v>57</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>57</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A13" s="5" t="s">
         <v>57</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A14" s="5" t="s">
         <v>57</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A15" s="5" t="s">
         <v>57</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A16" s="5" t="s">
         <v>57</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A17" s="5" t="s">
         <v>57</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A18" s="5" t="s">
         <v>57</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A19" s="5" t="s">
         <v>57</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A20" s="5" t="s">
         <v>57</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A21" s="5" t="s">
         <v>57</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A22" s="5" t="s">
         <v>57</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A23" s="5" t="s">
         <v>57</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A24" s="5" t="s">
         <v>57</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A25" s="5" t="s">
         <v>57</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A26" s="5" t="s">
         <v>57</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="13.7" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A27" s="5" t="s">
         <v>57</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A28" s="5" t="s">
         <v>57</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A29" s="5" t="s">
         <v>57</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A30" s="5" t="s">
         <v>57</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A31" s="5" t="s">
         <v>57</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A32" s="5" t="s">
         <v>57</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A33" s="5" t="s">
         <v>57</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A34" s="5" t="s">
         <v>57</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A35" s="5" t="s">
         <v>57</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A36" s="5" t="s">
         <v>57</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A37" s="5" t="s">
         <v>57</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A38" s="5" t="s">
         <v>57</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A39" s="5" t="s">
         <v>57</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A40" s="5" t="s">
         <v>57</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A41" s="5" t="s">
         <v>57</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A42" s="5" t="s">
         <v>57</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A43" s="5" t="s">
         <v>57</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A44" s="5" t="s">
         <v>57</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A45" s="5" t="s">
         <v>57</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A46" s="5" t="s">
         <v>57</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A47" s="5" t="s">
         <v>57</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A48" s="5" t="s">
         <v>57</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A49" s="5" t="s">
         <v>57</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A50" s="5" t="s">
         <v>57</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A51" s="5" t="s">
         <v>57</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A52" s="5" t="s">
         <v>57</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A53" s="5" t="s">
         <v>57</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A54" s="5" t="s">
         <v>57</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A55" s="5" t="s">
         <v>57</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A56" s="5" t="s">
         <v>57</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A57" s="5" t="s">
         <v>57</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A58" s="5" t="s">
         <v>57</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A59" s="5" t="s">
         <v>57</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A60" s="5" t="s">
         <v>57</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A61" s="5" t="s">
         <v>57</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A62" s="5" t="s">
         <v>57</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A63" s="5" t="s">
         <v>57</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A64" s="5" t="s">
         <v>57</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A65" s="5" t="s">
         <v>57</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A66" s="5" t="s">
         <v>57</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A67" s="5" t="s">
         <v>57</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A68" s="5" t="s">
         <v>57</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A69" s="5" t="s">
         <v>57</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A70" s="5" t="s">
         <v>57</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A71" s="5" t="s">
         <v>57</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A72" s="5" t="s">
         <v>57</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A73" s="5" t="s">
         <v>57</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A74" s="5" t="s">
         <v>57</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A75" s="5" t="s">
         <v>57</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A76" s="5" t="s">
         <v>57</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A77" s="5" t="s">
         <v>57</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A78" s="5" t="s">
         <v>57</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A79" s="5" t="s">
         <v>57</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A80" s="5" t="s">
         <v>57</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A81" s="5" t="s">
         <v>57</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A82" s="5" t="s">
         <v>57</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A83" s="5" t="s">
         <v>57</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A84" s="5" t="s">
         <v>57</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A85" s="5" t="s">
         <v>57</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A86" s="5" t="s">
         <v>57</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A87" s="5" t="s">
         <v>57</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A88" s="5" t="s">
         <v>57</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A89" s="5" t="s">
         <v>57</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A90" s="5" t="s">
         <v>57</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A91" s="5" t="s">
         <v>57</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A92" s="5" t="s">
         <v>57</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A93" s="5" t="s">
         <v>57</v>
       </c>
@@ -4465,24 +4465,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08B1CDCE-C8A2-4D10-A1CF-6C9E41A85E60}">
   <dimension ref="A1:AG113"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" customWidth="1"/>
-    <col min="15" max="15" width="53.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.87890625" customWidth="1"/>
+    <col min="8" max="8" width="11.1171875" customWidth="1"/>
+    <col min="9" max="9" width="28.703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.703125" customWidth="1"/>
+    <col min="13" max="13" width="9.5859375" customWidth="1"/>
+    <col min="15" max="15" width="53.703125" customWidth="1"/>
     <col min="17" max="17" width="66" customWidth="1"/>
-    <col min="20" max="20" width="24.140625" customWidth="1"/>
+    <col min="20" max="20" width="24.1171875" customWidth="1"/>
     <col min="21" max="21" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="9" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="9" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4583,7 +4583,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A2" s="8" t="s">
         <v>57</v>
       </c>
@@ -4658,7 +4658,7 @@
       <c r="AF2" s="3"/>
       <c r="AG2" s="3"/>
     </row>
-    <row r="3" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A3" s="8" t="s">
         <v>57</v>
       </c>
@@ -4731,7 +4731,7 @@
       <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
     </row>
-    <row r="4" spans="1:33" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="8" t="s">
         <v>57</v>
       </c>
@@ -4802,7 +4802,7 @@
       <c r="AF4" s="3"/>
       <c r="AG4" s="3"/>
     </row>
-    <row r="5" spans="1:33" s="9" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" s="9" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="8" t="s">
         <v>57</v>
       </c>
@@ -4869,7 +4869,7 @@
       <c r="AF5" s="3"/>
       <c r="AG5" s="3"/>
     </row>
-    <row r="6" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A6" s="8" t="s">
         <v>57</v>
       </c>
@@ -4933,7 +4933,7 @@
       <c r="AE6" s="3"/>
       <c r="AG6" s="3"/>
     </row>
-    <row r="7" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A7" s="8" t="s">
         <v>57</v>
       </c>
@@ -5016,7 +5016,7 @@
       </c>
       <c r="AG7" s="3"/>
     </row>
-    <row r="8" spans="1:33" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="8" t="s">
         <v>57</v>
       </c>
@@ -5099,7 +5099,7 @@
       </c>
       <c r="AG8" s="3"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A9" s="8" t="s">
         <v>57</v>
       </c>
@@ -5162,7 +5162,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A10" s="8" t="s">
         <v>57</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A11" s="8" t="s">
         <v>57</v>
       </c>
@@ -5276,7 +5276,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A12" s="8" t="s">
         <v>57</v>
       </c>
@@ -5319,7 +5319,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A13" s="8" t="s">
         <v>57</v>
       </c>
@@ -5394,7 +5394,7 @@
       <c r="AF13" s="3"/>
       <c r="AG13" s="3"/>
     </row>
-    <row r="14" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A14" s="8" t="s">
         <v>57</v>
       </c>
@@ -5467,7 +5467,7 @@
       <c r="AF14" s="3"/>
       <c r="AG14" s="3"/>
     </row>
-    <row r="15" spans="1:33" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="8" t="s">
         <v>57</v>
       </c>
@@ -5538,7 +5538,7 @@
       <c r="AF15" s="3"/>
       <c r="AG15" s="3"/>
     </row>
-    <row r="16" spans="1:33" s="9" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" s="9" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="8" t="s">
         <v>57</v>
       </c>
@@ -5605,7 +5605,7 @@
       <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
     </row>
-    <row r="17" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A17" s="8" t="s">
         <v>57</v>
       </c>
@@ -5669,7 +5669,7 @@
       <c r="AE17" s="3"/>
       <c r="AG17" s="3"/>
     </row>
-    <row r="18" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A18" s="8" t="s">
         <v>57</v>
       </c>
@@ -5752,7 +5752,7 @@
       </c>
       <c r="AG18" s="3"/>
     </row>
-    <row r="19" spans="1:33" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="8" t="s">
         <v>57</v>
       </c>
@@ -5835,7 +5835,7 @@
       </c>
       <c r="AG19" s="3"/>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A20" s="8" t="s">
         <v>57</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A21" s="8" t="s">
         <v>57</v>
       </c>
@@ -5929,7 +5929,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A22" s="8" t="s">
         <v>57</v>
       </c>
@@ -6003,7 +6003,7 @@
       <c r="AF22" s="3"/>
       <c r="AG22" s="3"/>
     </row>
-    <row r="23" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A23" s="8" t="s">
         <v>57</v>
       </c>
@@ -6075,7 +6075,7 @@
       <c r="AF23" s="3"/>
       <c r="AG23" s="3"/>
     </row>
-    <row r="24" spans="1:33" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A24" s="8" t="s">
         <v>57</v>
       </c>
@@ -6142,7 +6142,7 @@
       <c r="AF24" s="3"/>
       <c r="AG24" s="3"/>
     </row>
-    <row r="25" spans="1:33" s="9" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" s="9" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A25" s="8" t="s">
         <v>57</v>
       </c>
@@ -6209,7 +6209,7 @@
       <c r="AF25" s="3"/>
       <c r="AG25" s="3"/>
     </row>
-    <row r="26" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A26" s="8" t="s">
         <v>57</v>
       </c>
@@ -6273,7 +6273,7 @@
       <c r="AE26" s="3"/>
       <c r="AG26" s="3"/>
     </row>
-    <row r="27" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A27" s="8" t="s">
         <v>57</v>
       </c>
@@ -6356,7 +6356,7 @@
       </c>
       <c r="AG27" s="3"/>
     </row>
-    <row r="28" spans="1:33" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A28" s="8" t="s">
         <v>57</v>
       </c>
@@ -6439,7 +6439,7 @@
       </c>
       <c r="AG28" s="3"/>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A29" s="8" t="s">
         <v>57</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A30" s="8" t="s">
         <v>57</v>
       </c>
@@ -6533,7 +6533,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A31" s="8" t="s">
         <v>57</v>
       </c>
@@ -6607,7 +6607,7 @@
       <c r="AF31" s="3"/>
       <c r="AG31" s="3"/>
     </row>
-    <row r="32" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A32" s="8" t="s">
         <v>57</v>
       </c>
@@ -6679,7 +6679,7 @@
       <c r="AF32" s="3"/>
       <c r="AG32" s="3"/>
     </row>
-    <row r="33" spans="1:33" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A33" s="8" t="s">
         <v>57</v>
       </c>
@@ -6750,7 +6750,7 @@
       <c r="AF33" s="3"/>
       <c r="AG33" s="3"/>
     </row>
-    <row r="34" spans="1:33" s="9" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" s="9" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A34" s="8" t="s">
         <v>57</v>
       </c>
@@ -6817,7 +6817,7 @@
       <c r="AF34" s="3"/>
       <c r="AG34" s="3"/>
     </row>
-    <row r="35" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A35" s="8" t="s">
         <v>57</v>
       </c>
@@ -6881,7 +6881,7 @@
       <c r="AE35" s="3"/>
       <c r="AG35" s="3"/>
     </row>
-    <row r="36" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A36" s="8" t="s">
         <v>57</v>
       </c>
@@ -6964,7 +6964,7 @@
       </c>
       <c r="AG36" s="3"/>
     </row>
-    <row r="37" spans="1:33" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A37" s="8" t="s">
         <v>57</v>
       </c>
@@ -7047,7 +7047,7 @@
       </c>
       <c r="AG37" s="3"/>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A38" s="8" t="s">
         <v>57</v>
       </c>
@@ -7098,7 +7098,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A39" s="8" t="s">
         <v>57</v>
       </c>
@@ -7141,7 +7141,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A40" s="8" t="s">
         <v>57</v>
       </c>
@@ -7215,7 +7215,7 @@
       <c r="AF40" s="3"/>
       <c r="AG40" s="3"/>
     </row>
-    <row r="41" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A41" s="8" t="s">
         <v>57</v>
       </c>
@@ -7287,7 +7287,7 @@
       <c r="AF41" s="3"/>
       <c r="AG41" s="3"/>
     </row>
-    <row r="42" spans="1:33" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A42" s="8" t="s">
         <v>57</v>
       </c>
@@ -7357,7 +7357,7 @@
       <c r="AF42" s="3"/>
       <c r="AG42" s="3"/>
     </row>
-    <row r="43" spans="1:33" s="9" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" s="9" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A43" s="8" t="s">
         <v>57</v>
       </c>
@@ -7424,7 +7424,7 @@
       <c r="AF43" s="3"/>
       <c r="AG43" s="3"/>
     </row>
-    <row r="44" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A44" s="8" t="s">
         <v>57</v>
       </c>
@@ -7488,7 +7488,7 @@
       <c r="AE44" s="3"/>
       <c r="AG44" s="3"/>
     </row>
-    <row r="45" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A45" s="8" t="s">
         <v>57</v>
       </c>
@@ -7571,7 +7571,7 @@
       </c>
       <c r="AG45" s="3"/>
     </row>
-    <row r="46" spans="1:33" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A46" s="8" t="s">
         <v>57</v>
       </c>
@@ -7654,7 +7654,7 @@
       </c>
       <c r="AG46" s="3"/>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A47" s="8" t="s">
         <v>57</v>
       </c>
@@ -7705,7 +7705,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A48" s="8" t="s">
         <v>57</v>
       </c>
@@ -7748,7 +7748,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A49" s="8" t="s">
         <v>57</v>
       </c>
@@ -7822,7 +7822,7 @@
       <c r="AF49" s="3"/>
       <c r="AG49" s="3"/>
     </row>
-    <row r="50" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A50" s="8" t="s">
         <v>57</v>
       </c>
@@ -7894,7 +7894,7 @@
       <c r="AF50" s="3"/>
       <c r="AG50" s="3"/>
     </row>
-    <row r="51" spans="1:33" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:33" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A51" s="8" t="s">
         <v>57</v>
       </c>
@@ -7964,7 +7964,7 @@
       <c r="AF51" s="3"/>
       <c r="AG51" s="3"/>
     </row>
-    <row r="52" spans="1:33" s="9" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:33" s="9" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A52" s="8" t="s">
         <v>57</v>
       </c>
@@ -8031,7 +8031,7 @@
       <c r="AF52" s="3"/>
       <c r="AG52" s="3"/>
     </row>
-    <row r="53" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A53" s="8" t="s">
         <v>57</v>
       </c>
@@ -8095,7 +8095,7 @@
       <c r="AE53" s="3"/>
       <c r="AG53" s="3"/>
     </row>
-    <row r="54" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A54" s="8" t="s">
         <v>57</v>
       </c>
@@ -8178,7 +8178,7 @@
       </c>
       <c r="AG54" s="3"/>
     </row>
-    <row r="55" spans="1:33" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:33" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A55" s="8" t="s">
         <v>57</v>
       </c>
@@ -8261,7 +8261,7 @@
       </c>
       <c r="AG55" s="3"/>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A56" s="8" t="s">
         <v>57</v>
       </c>
@@ -8312,7 +8312,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A57" s="8" t="s">
         <v>57</v>
       </c>
@@ -8355,7 +8355,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A58" s="8" t="s">
         <v>57</v>
       </c>
@@ -8429,7 +8429,7 @@
       <c r="AF58" s="3"/>
       <c r="AG58" s="3"/>
     </row>
-    <row r="59" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A59" s="8" t="s">
         <v>57</v>
       </c>
@@ -8501,7 +8501,7 @@
       <c r="AF59" s="3"/>
       <c r="AG59" s="3"/>
     </row>
-    <row r="60" spans="1:33" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:33" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A60" s="8" t="s">
         <v>57</v>
       </c>
@@ -8571,7 +8571,7 @@
       <c r="AF60" s="3"/>
       <c r="AG60" s="3"/>
     </row>
-    <row r="61" spans="1:33" s="9" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:33" s="9" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A61" s="8" t="s">
         <v>57</v>
       </c>
@@ -8638,7 +8638,7 @@
       <c r="AF61" s="3"/>
       <c r="AG61" s="3"/>
     </row>
-    <row r="62" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A62" s="8" t="s">
         <v>57</v>
       </c>
@@ -8702,7 +8702,7 @@
       <c r="AE62" s="3"/>
       <c r="AG62" s="3"/>
     </row>
-    <row r="63" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A63" s="8" t="s">
         <v>57</v>
       </c>
@@ -8740,7 +8740,7 @@
       </c>
       <c r="N63" s="3"/>
       <c r="O63" s="3" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="P63" s="14"/>
       <c r="Q63" s="14"/>
@@ -8785,7 +8785,7 @@
       </c>
       <c r="AG63" s="3"/>
     </row>
-    <row r="64" spans="1:33" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:33" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A64" s="8" t="s">
         <v>57</v>
       </c>
@@ -8823,7 +8823,7 @@
       </c>
       <c r="N64" s="3"/>
       <c r="O64" s="3" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="P64" s="14"/>
       <c r="Q64" s="14"/>
@@ -8868,7 +8868,7 @@
       </c>
       <c r="AG64" s="3"/>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A65" s="8" t="s">
         <v>57</v>
       </c>
@@ -8919,7 +8919,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A66" s="8" t="s">
         <v>57</v>
       </c>
@@ -8962,7 +8962,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A67" s="8" t="s">
         <v>57</v>
       </c>
@@ -9036,7 +9036,7 @@
       <c r="AF67" s="3"/>
       <c r="AG67" s="3"/>
     </row>
-    <row r="68" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A68" s="8" t="s">
         <v>57</v>
       </c>
@@ -9108,7 +9108,7 @@
       <c r="AF68" s="3"/>
       <c r="AG68" s="3"/>
     </row>
-    <row r="69" spans="1:33" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:33" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A69" s="8" t="s">
         <v>57</v>
       </c>
@@ -9178,7 +9178,7 @@
       <c r="AF69" s="3"/>
       <c r="AG69" s="3"/>
     </row>
-    <row r="70" spans="1:33" s="9" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:33" s="9" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A70" s="8" t="s">
         <v>57</v>
       </c>
@@ -9245,7 +9245,7 @@
       <c r="AF70" s="3"/>
       <c r="AG70" s="3"/>
     </row>
-    <row r="71" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A71" s="8" t="s">
         <v>57</v>
       </c>
@@ -9309,7 +9309,7 @@
       <c r="AE71" s="3"/>
       <c r="AG71" s="3"/>
     </row>
-    <row r="72" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A72" s="8" t="s">
         <v>57</v>
       </c>
@@ -9392,7 +9392,7 @@
       </c>
       <c r="AG72" s="3"/>
     </row>
-    <row r="73" spans="1:33" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:33" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A73" s="8" t="s">
         <v>57</v>
       </c>
@@ -9475,7 +9475,7 @@
       </c>
       <c r="AG73" s="3"/>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A74" s="8" t="s">
         <v>57</v>
       </c>
@@ -9526,7 +9526,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A75" s="8" t="s">
         <v>57</v>
       </c>
@@ -9569,7 +9569,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="76" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A76" s="8" t="s">
         <v>57</v>
       </c>
@@ -9643,7 +9643,7 @@
       <c r="AF76" s="3"/>
       <c r="AG76" s="3"/>
     </row>
-    <row r="77" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A77" s="8" t="s">
         <v>57</v>
       </c>
@@ -9715,7 +9715,7 @@
       <c r="AF77" s="3"/>
       <c r="AG77" s="3"/>
     </row>
-    <row r="78" spans="1:33" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:33" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A78" s="8" t="s">
         <v>57</v>
       </c>
@@ -9781,7 +9781,7 @@
       <c r="AF78" s="3"/>
       <c r="AG78" s="3"/>
     </row>
-    <row r="79" spans="1:33" s="9" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:33" s="9" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A79" s="8" t="s">
         <v>57</v>
       </c>
@@ -9848,7 +9848,7 @@
       <c r="AF79" s="3"/>
       <c r="AG79" s="3"/>
     </row>
-    <row r="80" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A80" s="8" t="s">
         <v>57</v>
       </c>
@@ -9912,7 +9912,7 @@
       <c r="AE80" s="3"/>
       <c r="AG80" s="3"/>
     </row>
-    <row r="81" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A81" s="8" t="s">
         <v>57</v>
       </c>
@@ -9995,7 +9995,7 @@
       </c>
       <c r="AG81" s="3"/>
     </row>
-    <row r="82" spans="1:33" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:33" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A82" s="8" t="s">
         <v>57</v>
       </c>
@@ -10078,7 +10078,7 @@
       </c>
       <c r="AG82" s="3"/>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A83" s="8" t="s">
         <v>57</v>
       </c>
@@ -10129,7 +10129,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A84" s="8" t="s">
         <v>57</v>
       </c>
@@ -10172,7 +10172,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="85" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A85" s="8" t="s">
         <v>57</v>
       </c>
@@ -10247,7 +10247,7 @@
       <c r="AF85" s="3"/>
       <c r="AG85" s="3"/>
     </row>
-    <row r="86" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A86" s="8" t="s">
         <v>57</v>
       </c>
@@ -10320,7 +10320,7 @@
       <c r="AF86" s="3"/>
       <c r="AG86" s="3"/>
     </row>
-    <row r="87" spans="1:33" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:33" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A87" s="8" t="s">
         <v>57</v>
       </c>
@@ -10387,7 +10387,7 @@
       <c r="AF87" s="3"/>
       <c r="AG87" s="3"/>
     </row>
-    <row r="88" spans="1:33" s="9" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:33" s="9" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A88" s="8" t="s">
         <v>57</v>
       </c>
@@ -10454,7 +10454,7 @@
       <c r="AF88" s="3"/>
       <c r="AG88" s="3"/>
     </row>
-    <row r="89" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A89" s="8" t="s">
         <v>57</v>
       </c>
@@ -10518,7 +10518,7 @@
       <c r="AE89" s="3"/>
       <c r="AG89" s="3"/>
     </row>
-    <row r="90" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A90" s="8" t="s">
         <v>57</v>
       </c>
@@ -10601,7 +10601,7 @@
       </c>
       <c r="AG90" s="3"/>
     </row>
-    <row r="91" spans="1:33" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:33" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A91" s="8" t="s">
         <v>57</v>
       </c>
@@ -10684,7 +10684,7 @@
       </c>
       <c r="AG91" s="3"/>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A92" s="8" t="s">
         <v>57</v>
       </c>
@@ -10747,7 +10747,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A93" s="8" t="s">
         <v>57</v>
       </c>
@@ -10810,7 +10810,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A94" s="8" t="s">
         <v>57</v>
       </c>
@@ -10861,7 +10861,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A95" s="8" t="s">
         <v>57</v>
       </c>
@@ -10904,7 +10904,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="96" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A96" s="8" t="s">
         <v>57</v>
       </c>
@@ -10978,7 +10978,7 @@
       <c r="AF96" s="3"/>
       <c r="AG96" s="3"/>
     </row>
-    <row r="97" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A97" s="8" t="s">
         <v>57</v>
       </c>
@@ -11050,7 +11050,7 @@
       <c r="AF97" s="3"/>
       <c r="AG97" s="3"/>
     </row>
-    <row r="98" spans="1:33" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:33" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A98" s="8" t="s">
         <v>57</v>
       </c>
@@ -11116,7 +11116,7 @@
       <c r="AF98" s="3"/>
       <c r="AG98" s="3"/>
     </row>
-    <row r="99" spans="1:33" s="9" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:33" s="9" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A99" s="8" t="s">
         <v>57</v>
       </c>
@@ -11183,7 +11183,7 @@
       <c r="AF99" s="3"/>
       <c r="AG99" s="3"/>
     </row>
-    <row r="100" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A100" s="8" t="s">
         <v>57</v>
       </c>
@@ -11247,7 +11247,7 @@
       <c r="AE100" s="3"/>
       <c r="AG100" s="3"/>
     </row>
-    <row r="101" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A101" s="8" t="s">
         <v>57</v>
       </c>
@@ -11330,7 +11330,7 @@
       </c>
       <c r="AG101" s="3"/>
     </row>
-    <row r="102" spans="1:33" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:33" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A102" s="8" t="s">
         <v>57</v>
       </c>
@@ -11413,7 +11413,7 @@
       </c>
       <c r="AG102" s="3"/>
     </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A103" s="8" t="s">
         <v>57</v>
       </c>
@@ -11464,7 +11464,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A104" s="8" t="s">
         <v>57</v>
       </c>
@@ -11509,7 +11509,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="105" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A105" s="8" t="s">
         <v>57</v>
       </c>
@@ -11583,7 +11583,7 @@
       <c r="AF105" s="3"/>
       <c r="AG105" s="3"/>
     </row>
-    <row r="106" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A106" s="8" t="s">
         <v>57</v>
       </c>
@@ -11655,7 +11655,7 @@
       <c r="AF106" s="3"/>
       <c r="AG106" s="3"/>
     </row>
-    <row r="107" spans="1:33" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:33" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A107" s="8" t="s">
         <v>57</v>
       </c>
@@ -11721,7 +11721,7 @@
       <c r="AF107" s="3"/>
       <c r="AG107" s="3"/>
     </row>
-    <row r="108" spans="1:33" s="9" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:33" s="9" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A108" s="8" t="s">
         <v>57</v>
       </c>
@@ -11788,7 +11788,7 @@
       <c r="AF108" s="3"/>
       <c r="AG108" s="3"/>
     </row>
-    <row r="109" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A109" s="8" t="s">
         <v>57</v>
       </c>
@@ -11852,7 +11852,7 @@
       <c r="AE109" s="3"/>
       <c r="AG109" s="3"/>
     </row>
-    <row r="110" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A110" s="8" t="s">
         <v>57</v>
       </c>
@@ -11934,7 +11934,7 @@
       </c>
       <c r="AG110" s="3"/>
     </row>
-    <row r="111" spans="1:33" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A111" s="8" t="s">
         <v>57</v>
       </c>
@@ -12017,7 +12017,7 @@
       </c>
       <c r="AG111" s="3"/>
     </row>
-    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A112" s="8" t="s">
         <v>57</v>
       </c>
@@ -12068,7 +12068,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="113" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:28" x14ac:dyDescent="0.5">
       <c r="A113" s="8" t="s">
         <v>57</v>
       </c>
@@ -12233,6 +12233,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EA3DD6FD0640724CAC6A104AA4040E53" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="115dd23f2b72febc1d2fc1b60a8090db">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3dc215b4-4765-4137-95ef-e24fb8216673" xmlns:ns3="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="43aaa9d63816c92389865776c2b79fa6" ns2:_="" ns3:_="">
     <xsd:import namespace="3dc215b4-4765-4137-95ef-e24fb8216673"/>
@@ -12489,15 +12498,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -12511,6 +12511,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9663087D-43C0-4E56-A8DA-483B09F130B4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2D19717-5565-4791-84B9-616D731EB56D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12525,14 +12533,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9663087D-43C0-4E56-A8DA-483B09F130B4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
